--- a/news_data/2015_10.xlsx
+++ b/news_data/2015_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,63 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>전주시의회 행정委, 제주도서 관광 우수사례 견학</t>
+  </si>
+  <si>
+    <t>한국공항공사, 제주도 스마트관광 서비스 협약 체결</t>
+  </si>
+  <si>
+    <t>가족독채펜션 하바다통나무집 '2015 제주 가을 관광' 제주도펜션 여행 즐겨볼...</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 해외 전세기 시범 운항</t>
+  </si>
+  <si>
+    <t>제주도-베트남관광협회, 협력 비즈니스 마케팅 전개</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 지정 공모...선정 대상은?</t>
+  </si>
+  <si>
+    <t>우리바다 펜션, 제주도로 떠나는 가족-커플…관광을 원한다면 ‘이 곳으로’</t>
+  </si>
+  <si>
+    <t>제주도, 인도서 첫 관광홍보…"서울 왔다가 제주까지"</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '사랑&amp;희망 나눔 하우스' 봉사활동</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 전국체전 연계 현장마케팅 전개</t>
+  </si>
+  <si>
+    <t>롯데관광, 제주도 드림타워 카지노 직접 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회 친선대회, 고미화씨 우승</t>
+  </si>
+  <si>
+    <t>제주도 中 상하이서 크루즈관광객 유치활동</t>
+  </si>
+  <si>
+    <t>[뉴스브리핑] 한글날 제주도 하루 관광객 5만 5천명</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 제주~태국 직항 이용 관광객 환영행사</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월 베스트 관광인에 김우형 씨 선정</t>
+  </si>
+  <si>
+    <t>빅뱅 지드래곤 제주도 카페 '몽상 드 애월' ... 임시 오픈에도 관광객 몰려</t>
+  </si>
+  <si>
+    <t>"제주도 카지노, '성접대 서비스'로 中 관광객 모아"</t>
+  </si>
+  <si>
+    <t>제주도 관광자원 벤치마킹</t>
+  </si>
+  <si>
     <t>[동정] 김영진 제주도관광협회 회장</t>
   </si>
   <si>
@@ -52,31 +109,73 @@
     <t>롯데관광개발, 제주도 드림타워 카지노 복합리조트 직접 추진</t>
   </si>
   <si>
-    <t>[동정] 김영진 제주도관광협회 회장 &lt; 동정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [동정] 김영진 제주도관광협회 회장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 동정 [동정] 김영진 제주도관광협회 회장 기자명 고병수 기자 입력 2015.10.06 16:58 수정 2015.10.06 16:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道관광협회, 중국 우호교류단체와 민간차원 인문교류 활성화 전개 ▲ 김영진 제주도관광협회 회장. (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 7일부터 13일까지 중일한중소기업촉진회와 귀주성 검서남주 주정부 초청에 따른 제주관광 인문교류단을 구성해 제1회 국제산지관광축제에 참가 한다.이번 교류단 방문은 직항 운항지역[제주↔구이양(귀주성 성도)] 연계 민간 차원의 인문교류 활성화를 통해 중국 제 2선 지방도시 공략으로 신규 관광수요 창출을 위한 양 지역 관광단체 간 우호협력 교류를 강화할 계획이다. 한편 중일한중소기업촉진회와 귀주성 검서남주 주정부는 올해 5월 31일에 개최된 제20회 제주국제관광마라톤축제에 10여명의 교류단을 파견한 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>aT, 대학로, 제주도서 ‘국내외 관광객 대상 막걸리 홍보행사’ 개최 | 일요신문 본문바로가기 제1655호뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 호남 aT, 대학로, 제주도서 ‘국내외 관광객 대상 막걸리 홍보행사’ 개최 온라인 기사 2015.10.02 10:36 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 ▲한국농수산식품유통공사(사장 김재수, aT)는 최근 어려움을 겪고 있는 막걸리 소비 활성화를 위해 서울 대학로와 제주 바오젠거리에서 막걸리 시음 홍보행사를 개최한다. 2013년 행사 모습. [일요신문] 한국농수산식품유통공사(aT)는 최근 어려움을 겪고 있는 막걸리 소비 활성화를 위해 막걸리 시음 홍보행사를 개최한다고 2일 밝혔다. 서울 대학로와 제주 바오젠거리에서 열리는 이번 행사는 그동안 중장년층에 머물러 있던 막걸리 소비층을 젊은 층으로 확대하고, 중국 관광객에게 막걸리를 알리기 위해 마련됐다. 먼저, 2일부터 4일까지 서울 대학로 마로니에 공원에서 ‘대학로문화축제(SUAF 2015기상천외)’와 연계해 젊은 층을 대상으로 우리술 품평회 입상작 등 다양한 프리미엄 막걸리를 선보일 예정이다. 또한 13일부터 19일까지는 중국 관광객들이 많이 찾는 제주 바오젠거리에서 막걸리의 유래, 효능, 제조 및 음용법 등 정보를 제공해 우리 전통주의 우수성을 홍보할 예정이다. aT 관계자는 “이번 행사 기간 중에 막걸리 시음과 함께 다양한 즐길거리도 많이 준비돼 있어 젊은층과 중국 관광객들이 우리술을 이해하고 찾을 수 있는 계기가 될 것으로 기대한다”고 말했다. 정성환 기자 ilyo66@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 호남 많이 본 뉴스 한전 전주이설 항의민원 거짓답변·강압적 대응 파문 온라인 기사 ( 2021.10.18 22:06 ) 백신패스 시행 후 목포 코로나 신규 확진자 중 돌파감염 65.7%…백신패스 한계 드러내 온라인 기사 ( 2022.01.12 23:45 ) 임실군 엉터리 환경행정 불법행위 고질화 온라인 기사 ( 2022.01.04 11:04 ) 호남 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 박소현, 이색 칼국수집 이어 황지살X오이지냉국수에 과식 2 외교부-KINGS 업무협약 체결 3 '2TV저녁 생생정보' 장사의 신, 천안 왕만두전골 "후식 냉면은 서비스" 4 이재명 "국가 사정기관, 충성 경쟁하듯 전직 대통령 공격 나서" 5 '작은 아씨들' 남지현, 남기애와 뉴스 출연 "증거 속 유전자는 엄기준 아버지" 6 '생방송 투데이' 맛있go 싸다go, 평택 6000원 장어탕 "가족이 양식장 운영" 7 여수산단 공장 배관서 화학물질 일부 유출 사고…인명피해는 없어 8 LH, 청년‧신혼부부 매입임대 주택 4일부터 접수 썸타임즈 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 ‘최강야구’ 막내 류현인, 신인 드래프트에 임하는 자세 일요신문U 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 열정 폭발! 제12회 청소년 끼 페스티벌 하이라이트 스타채널 디 오리지널 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 '앨범 공개 D-1' 블랙핑크 해외 일정 위해 완전체 출국 호남 많이 본 뉴스 1 한전 전주이설 항의민원 거짓답변·강압적 대응 파문 2 백신패스 시행 후 목포 코로나 신규 확진자 중 돌파감염 65.7%…백신패스 한계 드러내 3 임실군 엉터리 환경행정 불법행위 고질화 4 해경 코로나 방역 뚫리고 치안 공백까지…경찰서 한 곳서 6명 확진에 45명 격리 5 김종식 목포시장 부인 직접 금품 건넨 사실 없어…“공작에 당했다” 주장 일요 eye전문가 칼럼 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 증시이슈 진단 9월 FOMC 회의 이후 시장(feat. 인내) 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 제1577호 발행일 : 2022년 8월 10일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 04일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
-  </si>
-  <si>
-    <t>관광산업 활성화 시켜 제주도내 습지 보전 한다고? &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 관광산업 활성화 시켜 제주도내 습지 보전 한다고? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 관광산업 활성화 시켜 제주도내 습지 보전 한다고? 기자명 최병근 기자 입력 2015.10.05 14:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주환경운동연합, “습지 관광 상품화 발상 상당히 우려 스럽다”제주도, 322개 습지 보전·관리기준 제도화…중장기 대책 발표 ▲ [제주도민일보 DB] 환경단체 관계자가 습지 현장 조사를 벌이고 있는 모습.[제주도민일보=최병근 기자] 제주도가 도내 습지를 보전하고 관리하기 위한 체계를 만든다. 하지만 제주도가 추진하는 습지보전 종합계획 대책의 결론이 생태자원과 연계한 관광활성화여서 향후 논란이 예상된다. 습지의 관광자원화는 또 다시 습지의 파괴로 이어질 것이라는 지적이다. 제주도는 무분별한 개발행위로 습지가 사라짐에 따라 중장기 습지 보전 종합계획을 2016년까지 진행하고 습지의 가치를 극대화 시킨다는 계획을 5일 발표했다.제주도에 따르면 현재 도내에는 전체 322개의 습지가 있다. 제주시에는 177개, 서귀포시에 145개가 있다.제주에서는 동백동산 습지를 비롯해 물영아리, 물장아리, 1100고지, 숨은물뱅듸 습지 등 5곳이 습지보호지역으로 지정돼 관리되고 있다.제주도가 발표한 습지보전 종합계획에 따르면 2016년부터 2017년까지 사업비 1억원을 투자해 습지의 분포 및 실태조사, 습지지역의 보전·관리방안, DB자료를 구축할 계획이다.제주도의 습지보전 대책은 지역실정에 맞는 습지보전 및 관리기준을 제도화하고 기존 연못을 활용해 생태연못을 조성한다는 계획이다.또 도시화의 확대 등으로 각종 위협에 처해있는 특정식물종의 서식처·증식·복원방안을 강구해 거시적 자연생태학습장으로 활용하는 방안을 만들 예정이다.제주도는 이 같이 만들어진 종합계획을 정책을 만들때 활용할 방침이다.우선 제주도는 습지보전 종합계획 수립에 따라 환경영향평가 및 각종 개발행위 시 보전가치가 있는 습지를 보호할 계획이다. 또 습지보전지역 등 생태자원과 연계한 관광활성화를 위한 콘텐츠로 개발·활용해 나갈 예정이다.하지만 환경단체는 이에 대해 심각한 우려를 표했다.제주환경운동연합 관계자는 “일부 접근이 쉬운 습지를 상징적인 차원에서 관광자원화 하는 것은 가능하겠지만 온전하게 보전되고 있는 습지까지 관광상품화 한다는 것은 상당히 우려 스럽다. 이런 방식의 접근 방식은 안된다”며 “제주도가 추진하고 있는 습지 전수조사 계획에 우리 단체도 적극 참여할 방침”이라고 강조했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+    <t>전주시의회 행정委, 제주도서 관광 우수사례 견학 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 전북 전주시의회 행정委, 제주도서 관광 우수사례 견학 (전주=뉴스1) 김동규 기자					| 2015-10-30 16:01 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 전주시의회 행정위원회가 28~30일 제주 한라도서관, 바오젠 거리 등 우수 사례 비교견학을 하고 있다.(전주시의회제공)© News1 전주시의회 행정위원회(위원장 강동화)는 28~30일 제주 한라도서관, 바오젠 거리 등 우수 사례 비교견학을 실시했다.이번 비교견학은 우수 사례 현장탐방을 통한 관광산업 활성화라는 주제로 제주 대표 도서관 1호인 한라도서관, 이중섭미술관, 바오젠 거리 등 관광명소를 전주시 관광산업에 접목하기 위해 마련됐다.위원회는 제주시의 국제화 거리인 바오젠 거리를 견학하며 조성 배경과 현황에 대한 설명을 들었다.또 골목 상권 활성화와 해외 투자유치를 통한 관광명소 성공 사례를 전주시의 구도심 활성화와 관광객 유치에 활용하기 위해 현장을 꼼꼼히 살펴봤다. 이 밖에도 최근 제주의 주요 관광명소로 떠오르고 있는 이중섭미술관과 거리도 탐방했다.강동화 위원장은“좋은 사례는 전주시에 접목할 수 있도록 적극적으로  활용할 계획”이라며“이번 비교 견학을 통하여 얻은 아이디어를 전주시 도서관 운영과 구도심 활성화 등에 도움이 되도록 의정활동을 활발히 전개 하겠다”고 말했다. kdg2066@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 해외 전세기 시범 운항 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 해외 전세기 시범 운항 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도-관광협회, 해외 전세기 시범 운항 기자명 이동건 기자					(dg@jejusori.net) 입력 2015.10.28 14:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도와 제주도관광협회가 관광시장 활성화를 위해 해외 직항 전세기를 오는 29일부터 시범 운항한다. 관광협회는 메르스 여파로 침체된 해외 관광시장 활성화를 위해 필리핀, 베트남, 일본을 오가는 전세기를 띄운다. 제주-마닐라(필리핀) 노선은 오는 29일~11월2일, 12월3~7일 운항되며, 제주-하노이(베트남) 노선 11월5~9일, 제주-도쿄 11월21~23일 운항된다. 오는 29일에는 마닐라 지역 초·중·고등학교 교장단 145명이 제주 교육 환경 시찰을 위해 전세기를 타고 제주를 찾을 예정이다. 관광협회는 도내 여행업계 중심으로 직거래 시스템을 구축하고, 동남아 등 다양한 해외시장 개척을 추진할 계획이다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-베트남관광협회, 협력 비즈니스 마케팅 전개 &lt; 경제 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-베트남관광협회, 협력 비즈니스 마케팅 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 경제 제주도-베트남관광협회, 협력 비즈니스 마케팅 전개 기자명 고병수 기자 입력 2015.10.27 17:25 수정 2015.10.27 17:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 호치민 베․한 문화관광축제 로드홍보 전개 ▲ 제주도관광협회가 홍보부스 및 개막식 무대에 제주도의 상징인 돌하르방과 한류K-POP 포토존을 설치해 축제 관람객들이 기념촬영을 하는 등 참관객들의 관심과 큰 호응을 보였다.(사진제공=제주도관광협회) (제주=국제뉴스) 고병수기자 = 제주관광협회가 해외관광 다각화를 위해 베트남에 비지니스 마케팅을 전개했다.제주도와 제주도관광협회(회장 김영진)는 22일부터 26일까지 베트남 호치민 노동문화궁에서 개최된 2015 한사모 베․한문화관광축제에 참가해 비즈니스 마케팅을 전개했다고 27일 밝혔다.도 관광협회와 우호교류단체인 베트남관광협회 그리고 베․한국제문화센터와 공동으로 제주도관광홍보부스를 설치해 제주관광상품 홍보 및 동남아 관광시장 다변화를 위해 마케팅을 전개했다.이날 축제 개막식에 앞서 간담회에서 베트남의 중,상류층 관광객을 대상으로 2016년도 제주국제관광마라톤축제 및 도관광협회장배 골프대회등과 연계한 레저․스포츠관광상품을 개발해 베트남의 국영여행사인 사이공투어리스트에서 적극 판매, 모객을 추진키로 협의하는 등 민간교류단체와 실질적인 관광객 유치를 위한 협력 비즈니스 마케팅 활동을 펼쳤다  특히 지난 3월 제주도관광협회와 베트남관광협회간 우호교류협약 체결시 상호 관광객 유치활성화를 위해 추진했던 제주-호치민 구간 직항노선 유치를 위한 전세기 운항이 오는 11월28일부터 12월2일까지 3박5일간 진행된다.이에 베트남 관광객 유치를 위한 실질적인 효과가 표면으로 나타나고 있다 또한 축제장내 메인 홍보부스 및 개막식 무대에 제주도의 상징인 돌하르방과 한류K-POP 포토존을 설치해 축제 관람객들이 기념촬영을 하는 등 참관객들의 관심과 큰 호응을 보였다.특히 호치민 대표방송사인 HTV3와 노동신문 등 현지 언론사에서 제주관광에 대한 집중적인 취재활동을 펼쳤다  한편 한사모 베․한문화관광축제는 올해 3번째로 개최되며 한․사․모는 베트남 정부의 정식단체이며 한국을 사랑하는 모임으로 한국과 베트남과의 문화관광교류를 통해 양 국가간 관광상품 및 한류상품 등 활성화를 위한 노력을 기울이고 있다.이번 축제는 하루 약 2000여명의 베트남 내국인 및 외국 관광객이 참관하고 30여개의 한국 기업체가 참가해 한국의 우수상품 및 관광상품을 홍보하고 있으며 베트남 현지인을 대상으로 K-POP 페스티벌, 한복체험 및 한국음식만들기 체험, 베트남 전통의상인 아오자이 패션쇼 등 다양한 축제 내용으로 꾸며져 있다.관계자는 “제주관광홍보부스는 베트남관광협회와의 우호교류협약체결을 통해 올해 처음 운영했다”며 “향후에도 양 단체간 협력 마케팅 전개를 통해 적극적으로 참여하고 민간 비즈니스 협력마케팅을 활성화 시켜 도내 관광업계의 경쟁력 제고와 해외시장 다변화를 위한 동남아 관광객 유치 확대를 위하여 노력 할 것“이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 지정 공모...선정 대상은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 우수관광사업체 지정 공모...선정 대상은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 우수관광사업체 지정 공모...선정 대상은? 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.10.22 12:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 관광사업체의 자율적인 경쟁을 통해 관광객들에게 좋은 품질의 관광서비스를 제공하기 위해 19일부터 11월 13일까지 2015년 하반기 우수관광사업체를 공모한다고 전했다. 공모대상은 영업신고(리모델링) 후 1년 이상 된 제주특별자치도에 본점을 둔 업체로 음식점, 숙박업소, 교통업체, 관광지, 여행사 등 5개분야를 대상으로 한다. 종전에 우수관광사업체로 지정돼 지정기간 2년이 도래한 사업체는 신청해 재지정을 받아야 한다. 공모에 신청한 업체를 대상으로 전문가로 구성된 현장평가위원들의 사업체 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 우수관광사업체를 최종 선정한다. 업체의 시설 및 환경, 서비스, 요금, 위생상태, 안전관리, 지역사회 공헌도 등 평가표에 의하여 종합적으로 평가한다. 우수관광사업체의 지정기간은 2년이며, 지정된 업체에 대해서는 도지사의 우수관광사업체 지정서 및 인증패, 홍보지원금(50만원)이 지급되된다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>우리바다 펜션, 제주도로 떠나는 가족-커플…관광을 원한다면 ‘이 곳으로’ - 열린세상 열린방송 MBN 홈 &gt; 전체기사 &gt; 기사 |  글자크기 우리바다 펜션, 제주도로 떠나는 가족-커플…관광을 원한다면 ‘이 곳으로’ 기사입력 2015.10.20 11:46:48 기사 나도 한마디 Tweet 0 0 구글 [MBN스타 대중문화부] 제주 서귀포 ‘우리바다 펜션’이 낭만적인 커플 및 가족 여행지로 주목을 받고 있다. 가을 시즌 여행을 준비하는 커플이나 가족, 단체 단위 숙박여행을 하기에도 적합하다는 평가를 받고 있는 ‘우리바다 펜션’은 아름다운 제주 서귀포 남동쪽에 위치하고 있다. 중문단지와 성산방향의 중간정도에 위치, 주변에 해비치 해수욕장과 민속박물관이 5분 거리에 위치하고 있으며, 성산일출봉과 섭지코지가 20분 거리에 있어 관광하기에 적합하다. 특히, 우리바다 펜션 바로 앞에는 드넓게 가슴속까지 시원하게 해주는 바닷가 펼쳐져 있어, 푸른 바다에서 고동. 낙지. 문어. 낚시 등 즐거운 체험을 할 수 있으며, 직접 감귤 농장을 운영하고 있어 감귤 따기 체험도 할 수 있다. 단 감귤농장 체험은 11월15일부터 가능하다. 우리바다 펜션 측은 “따뜻하고 아늑한 분위기로 재방문이 이어질 만큼 고객들에게 많은 사랑을 받고 있다”며 “고객들에게 더 좋은 환경과 서비스를 제공하기 위해 최상의 서비스뿐 아니라 청결을 위해 최선의 노력하고 있다”고 전했다. 한편, 우리바다 펜션은 파도룸, 올레룸(원룸) 2인~4인 기준, 바다룸(투룸) 4인~8인 기준으로 이루어져 있으며, 부대시설로 바비큐장, 공원, 바다전망대까지 갖추고 있어 낭만적인 분위기로 커플, 가족 등 많은 여행객들의 사랑을 받고 있다. 대중문화부 mkculture@mkculture.com &lt; Copyright ⓒMBN(www.mbn.co.kr)무단전재 및 재배포 금지 &gt; 관련기사 신혜성, 도난차량서 음주측정 거부하다 체포 크러쉬, 인종차별 논란 해명 "제스처 오해" 이세영, 밥 먹는 모습 마저도 섹시 그 자체 나연, 무대 뒤에서도 숨길 수 없는 예쁨 서현, 우아+섹시미 가득한 드레스 MBN STAR 최신포토 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. ‘음주운전 자숙’ 리지, 새 증명사진 공개...미소 다시.. 마마무, 빈티지한 무드 가득한 ‘MIC ON’ 하이라이트 .. 이찬혁, 첫 솔로 앨범 타이틀곡 제목 ‘파노라마’...의.. 임윤아 “‘빅마우스’ 나에겐 새로운 도전...남.. 임윤아 서인국 유아인 하정우 박은빈 강태오 이정재 이정재 주종혁 강기영 드라마 우아한 가레벨업최고의 치킨설렘주의보마성의 기쁨마녀의 사랑리치맨고품격 짝사랑시추에이션 연남동 539엄마니까 괜찮아수상한 가족천국의 눈물 예능 트로트 퀸지구방위대친한 예능자연스럽게모던 패밀리엄지의 제왕속풀이쇼 동치미알토란스포츠 야예능 특집 프로그램 교양 나는 자연인이다여행생활자 집시맨기막힌 이야기 실제상황생생 정보마당판도라천기누설소나무휴먼다큐 사노라면현장르포 특종세상MBN 토요포커스열린TV 열린세상성공다큐 최고다 보도 MBN 종합뉴스이 한 장의 사진픽 뉴스굿모닝 MBN아침 &amp; 매일경제뉴스 &amp; 이슈뉴스파이터MBN 프레스룸MBN 뉴스와이드전국네트워크뉴스MBN 뉴스와이드 주말스포츠뉴스굿모닝 월드실리콘밸리 라이브MBN 뉴스특보시사스페셜데이터로 본 세상 뉴스 전체 정치 경제 사회 국제 문화 연예 스타 스포츠 생활ㆍ건강 지역 인기척 현장에서 뉴스제보 서비스 헬스 날씨 뉴스레터 이벤트 SNS 유튜브 Entertainment 유튜브 News 카카오스토리 페이스북 인스타그램 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 RSS 사이트맵 SNS MBN Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 류호길 |서울시 중구 퇴계로 190 (주)매일방송 |오시는길|대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 |인터넷신문등록번호 서울 아01043 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved. (본 사이트는 IE8.0 에 최적화 되어 있습니다.) 시작페이지 설정 즐겨찾기</t>
+  </si>
+  <si>
+    <t>제주도, 인도서 첫 관광홍보…"서울 왔다가 제주까지" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 인도서 첫 관광홍보…"서울 왔다가 제주까지" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 인도서 첫 관광홍보…"서울 왔다가 제주까지" 송고시간2015-10-15 11:12 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 나확진 기자 기자 페이지 (뉴델리=연합뉴스) 나확진 특파원 = 제주도가 인도에서 처음으로 관광설명회를 열고 인도 관광객 유치에 나섰다. 이중환 제주특별자치도 문화관광스포츠국장을 단장으로 한 대표단과 한국관광공사 뉴델리지사(이병선 지사장)는 14일(현지시간) 뉴델리 랄리트 호텔에서 40여개 인도 인도 여행사 등 여행업 관계자 등 130여명이 참석한 가운데 제주도의 경관과 비자 없이 방문할 수 있는 편의성 등을 집중적으로 홍보했다. 이병선 지사장은 "한국에는 서울만 있는게 아니다"면서 "서울과 제주를 연계하는 여행 코스는 도시와 자연을 모두 즐길 수 있어 여행의 만족도를 높일 것"이라고 말했다. 광고 이중환 국장은 "지난해 인도에서 한국을 방문한 사람은 14만8천명이지만 제주도를 찾은 이는 1천200명에 불과할 정도로 아직 인도에 제주도는 알려지지 않았다"며 기업 행사, 포상관광 유치부터 단계적으로 저변을 넓혀나가겠다고 밝혔다. 이 국장은 지난해 제주도를 방문한 외국인 관광객이 330만명인데 중국 관광객이 86%정도로 절대 다수라며 "관광객이 한 나라에만 지나치게 집중되는 것은 바람직하지 않아 동남아시아 등 다른 지역에 제주를 알리는 활동을 계속하고 있다"고 덧붙였다. 굴딥 싱 사니 인도 해외여행업협회(OTOAI) 회장은 "인도 관광객 유치를 위해서는 채식주의자들이 많은 인도 실정을 고려해 음식문제 해결과 언어소통이 중요하다"고 조언했다. 현재 제주도 전역에 인도 음식점은 2곳만 있는 것으로 파악된다. 인도 2대 여행사 가운데 하나인 콕스앤드킹스의 산지트 조허 부회장은 "제주도는 훌륭한 자연과 다양한 레저활동으로 인도 관광객의 관심을 끌 수 있다고 본다"며 "현재 제주도를 포함한 패키지 상품을 준비하고 있다"고 전했다. 제주도와 제주관광공사, 제주관광협회, 제주컨벤션뷰로 등이 참여한 대표단은 이날 인도 언론을 상대로 별도 소개 행사를 한 데 이어 15일 에어인디아 등 항공사와 여행사를 직접 방문해 제주 관광을 홍보한다. rao@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/10/15 11:12 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 ‘사랑&amp;희망 나눔 하우스’ 봉사활동 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 ‘사랑&amp;희망 나눔 하우스’ 봉사활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 ‘사랑&amp;희망 나눔 하우스’ 봉사활동 기자명 최병근 기자 입력 2015.10.18 15:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 노형동 소재 복지 사각 가구 방문…주거환경 개선 위해 3번째 활동 ▲ 제주도관광협회 사랑나눔봉사단(단장 강인철)이 18일 제주희망봉사단과 함께 제주시 노형동에 소재한 실질복지 사각가구를 방문해 주거환경 개선을 위한 세 번째 ‘사랑&amp;희망 나눔하우스’ 집수리를 한 뒤 기념촬영을 하고 있다.[제주도민일보=최병근 기자] 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 18일 제주희망봉사단(단장 이민철)과 함께 제주시 노형동에 소재한 실질복지 사각가구를 방문해 주거환경 개선을 위한 세 번째 ‘사랑&amp;희망 나눔하우스’ 집수리 활동을 전개했다고 밝혔다.생활환경 개선을 위해 비가림막 작업, 도배, 주변정화 및 온수기 설치 등의 활동을 벌였다. 아울러 생활에 필요한 후원물품도 함께 전달했다.제주지역 집수리 전문 봉사단체인 제주희망봉사단과 사회공헌 협약을 체결한 사랑나눔봉사단은 열악한 주거환경으로 인해 일상생활의 제약을 받고 있는 어려운 이웃들의 주거환경 개선 활동과 문화생활 향유가 어려운 소외계층의 문화∙여가 활동 지원 사업을 지속적으로 전개해 나가고 있다.제주도관광협회 사랑나눔봉사단은 지난 2012년 6월 출범 후 현재 280여명의 후원회원이 활동하고 있다. 도내 소외계층 및 사회복지시설 방문 봉사활동, 성금 모금 캠페인, 관광과 문화를 접목한 도내 관광활동 지원, 사회적 이슈와 연계한 지역사회 공헌활동 등을 꾸준히 전개하고 있다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 전국체전 연계 현장마케팅 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 전국체전 연계 현장마케팅 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 전국체전 연계 현장마케팅 전개 기자명 고병수 기자 입력 2015.10.18 13:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도와 제주특별자치도관광협회는 본격 가을 관광성수기를 앞두고 내국인 관광객 유치를 위한 현장마케팅 사업일환으로 16일부터 22일까지 7일간 강원도 강릉에서 개최되는 제96회 전국체육대회에 참가해 제주관광홍보관 운영한다고 18일 밝혔다.또한 이를 통해 제주 국내관광객을 유치를 위한 대대적인 홍보마케팅 활동을 전개한다.제96회 전국체육대회는 매년 가을에 개최되는 전국 규모의 종합경기대회로 전국 지방자치단체가 대거 참여해 팔도의 다채로운 볼거리와 먹을거리는 물론 관광정보들을 만나볼 수 있다는 것.이 대회에는 17개 시ㆍ도 및 해외동포선수단 등 2만5천여명이 참가할 것으로 예상되고 있다. 제주특별자치도 홍보관은 제주에서 꼭 경험해야 할 제주명품 소개, 세계7대자연경관 이미지를 부각시키는 디자인으로 홍보부스를 제작해 제주를 적극 홍보해 내국인 관광객 수요를 창출해 나갈 계획이다.이에 따라 도는 세계유일의 유네스코 자연과학분야 3관왕 달성과 세계7대자연경관 선정 등 국제적인 제주의 관광메리트와 제주의 다양한 축제를 집중 홍보했다.도와 도관광협회는 앞으로도 지속적인 마케팅 활동을 전개해 2015년 막바지 잠재관광객 수요를 유치하기 위해 최선의 노력을 다할 계획이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>롯데관광, 제주도 드림타워 카지노 직접 추진 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 롯데관광, 제주도 드림타워 카지노 직접 추진 sns공유 더보기 롯데관광, 제주도 드림타워 카지노 직접 추진 머니투데이 김유경 기자 기자 더보기 sns공유 더보기 2015.10.05 11:08 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 동화투자개발로부터 계약금 1000억원 현물출자 받기로 드림타워 카지노복합리조트 조감도/사진제공=롯데관광개발 롯데관광개발 (10,050원 ▼600 -5.63%)이 계열사인 동화투자개발로부터 중국 녹지(뤼디)그룹에 지급한 계약금 1000억원을 현물출자 받아 드림타워 카지노 복합리조트 사업을 직접 추진하기로 했다고 5일 밝혔다. 롯데관광개발과 동화투자개발은 이날 오전 각각 이사회를 열고, 동화투자개발이 드림타워 카지노호텔 계약금 1000억원을 롯데관광개발에 현물출자하고 롯데관광개발은 주식 564만9717주(발행가액 주당 1만7700원)를 동화투자개발에 배정하기로 결의했다고 밝혔다. 현물출자란 투자자가 현금 이외의 재산을 출자하고 주식을 받는 방식으로, 상장사인 롯데관광개발의 경우 법원의 인가를 거쳐 최종 확정된다. 제주 최고 중심지인 노형오거리에 위치한 드림타워 카지노 복합리조트는 토지주인 동화투자개발과 중국 최대 부동산개발회사인 녹지그룹이 공동개발하기로 한 프로젝트다. 지난 9월 동화투자개발이 녹지그룹에 사업부지(2만3301㎡)를 1920억원에 매각하고 동화 측이 소유할 카지노호텔 계약금으로 1000억원을 녹지에 지급했다. 동화투자개발은 호텔과 외국인전용 카지노, 쇼핑몰 등 전체 연면적 30만2777㎡의 59.02%를 소유할 예정이다. 이번 현물출자로 드림타워 카지노 복합리조트 사업은 계열사인 롯데관광개발이 전면에 나서 추진하게 됐다. 롯데관광개발은 인·아웃바운드 여행업은 물론 크루즈여행업, 면세점사업(동화면세점)을 통해 40년 동안 외국인관광객을 유치해 온 종합여행기업이다. 김기병 롯데관광개발 회장은 "오랜 기간 축적된 외국인관광객 유치 노하우를 바탕으로 드림타워를 월드클래스(world-class) 카지노 복합리조트로 만들겠다"고 밝혔다. 김 회장은 "광화문 서울파이낸스센터와 동화면세점빌딩의 자체개발 경험도 드림타워 카지노 복합리조트 개발에 큰 도움이 될 것"이라고 설명했다. 김 회장은 "드림타워 카지노 복합리조트 완공으로 생겨나는 고급일자리 2200개 중 80%를 제주 도민으로 우선 채용할 계획"이라며 "본사도 제주로 옮겨 평균 임금이 가장 높고 관광진흥기금도 가장 많이 내는 1등 향토기업이 되겠다"고 밝혔다. 드림타워 카지노 복합리조트는 호텔 776실과 호텔레지던스 850실 등 1626객실, 외국인전용 카지노, 쇼핑몰, 전망대, 호텔 부대시설로 구성된다. 녹지그룹이 개발하는 호텔레지던스는 5성급 카지노호텔 서비스가 제공되는 수익형 호텔로 분양되고 롯데관광개발은 분양자들로부터 호텔레지던스를 위탁받아 카지노호텔과 통합해 운영할 계획이다. 객실수에 따라 카지노 매출이 좌우되는 업계의 특성을 고려해 월드클래스 카지노 복합리조트로 도약하기 위한 포석이라는 게 롯데관광개발 설명이다. 드림타워의 전체 1626객실은 마카오의 대표적 카지노 복합리조트인 시티오브드림(City of Dream)의 1403 객실이나 윈 마카오(Wynn Macau)의 1004 객실을 넘어선다. 드림타워 2층에는 영업장 면적 9120㎡ 규모의 외국인전용 카지노가 들어서 게임테이블 200개와 슬롯머신 400대를 운영할 계획이다. 특히 2층 전체를 아파트 4층 높이인 층고 11m로 설계해 월드클래스 카지노에서 필수적인 탁 트인 개방감을 갖출 계획이다. 현재 국내에서는 영업장면적 1만2793㎡ 규모의 강원랜드 카지노가 게임테이블 200개와 슬롯머신 1360대를 운영 중이며, 파라다이스시티(8003㎡)와 리포&amp;시저스(7700㎡), 리조트월드제주(1만683㎡)가 외국인전용 카지노 복합리조트를 건설 중에 있다. 드림타워 3층과 4층에는 2만260㎡ 규모의 제주도 최대 쇼핑몰이 들어선다. 가로수길이나 홍대앞처럼 개성 넘치는 소형 숍들로 구성된 골목길 형태의 쇼핑몰로, 외국인관광객이 선호하는 감각 있는 국내 디자이너들의 부티크 숍과 레스토랑, 카페 등이 어우러져 제주의 문화중심지로 조성된다. 또 제주 최고 높이의 38층 전망대는 한라산과 바다, 제주 시내를 파노라믹 뷰로 막힘없이 볼 수 있어 핵심 관광명소가 될 전망이다. 드림타워 카지노 복합리조트는 10월 착공에 들어가 2018년 하반기에 개장할 예정이다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 원/달러 환율, 4거래일만에 1430원 재돌파 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 생활문화 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 부산 빛낸 김유정, '8100만원대' 초호화 드레스 룩…어디 거? 베트남 "'작은 아씨들' 방영 중단해달라"…바로 삭제한 넷플릭스, 왜 韓日 하늘길 열리자 '카지노'도 들썩..실적 반등 기대에 재개장↑ "주얼리만 3.2억?" 블랙핑크 지수, 아찔한 초미니 패션…어디 거 블랙핑크 제니 vs 모델, 클래식한 패션…같은 옷 다른 느낌 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 '91세' 이런 몸 가능?…기네스북 최고령 美모델 파격 화보 [영상] 맨몸의 모델에 스프레이 뿌리니…화려한 의상 등장 '반전' [내일 날씨] 연휴 마지막 비·바람에 체감온도 '뚝'…서울 최저 9도 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 생활문화 마켓 '노벨상 특수' 서점가 활기…아니 에르노 소설 인기 국립현대무용단 '작꾸 둥굴구 서뚜르게', '스텝업' 무대에 K콘텐츠 유럽 판로 확대..'2022 K-콘텐츠 엑스포' 개최 '미지의 땅' 사우디아라비아로 '도슨트 투어' 떠나볼까 [오늘 날씨] 전국 산발적 비·돌풍에 체감온도 뚝…서울 최저 9도 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" 김영민, 윤형빈과 갈등…"나를 죽이려고 해, 10년 넘게 안봤다" 츄, 오은영 충격 진단→단톡방 왕따 논란…"콘서트 공지 못받아" 공감 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 비공감 [기자수첩] 판교에 나타난 '피해 호소인' '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회 친선대회, 고미화씨 우승 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회 친선대회, 고미화씨 우승 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회 친선대회, 고미화씨 우승 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.10.22 14:22 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 고상윤 송당승마장 대표)는 21일 아덴힐리조트앤골프클럽에서 회원사 임직원 및 가족 등 동호회 회원 40여명이 참가한 가운데 10월 친선 골프대회를 개최했다. 대회결과 투어버스의 고미화 실장이 우승을 차지했다. 이 대회는 관광업계 종사자들이 제주도내 골프장 업계 활성화 등을 위해 주기적으로 개최되고 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[뉴스브리핑] 한글날 제주도 하루 관광객 5만 5천명 | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 [뉴스브리핑] 한글날 제주도 하루 관광객 5만 5천명 입력 2015-10-10 20:55 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 1. 제주 하루 관광객 5만5천, 역대 최다한글날 연휴 첫날인 어제(9일) 하루 동안 제주를 방문한 관광객이 5만 5000명을 넘어 역대 하루 단위 관광객 최다를 기록했습니다. 제주도관광협회는 어제 하루 5만 5887명이 제주를 방문해 종전 최다였던 지난달 26일 5만 4700여 명보다 1100여 명 많았다고 밝혔습니다. 이날 제주를 찾은 관광객 중 내국인은 4만 2000여 명으로 전체의 76%를 차지했습니다.2. 개인워크아웃 신청 20대만 증가신용회복위원회에 개인워크아웃을 신청한 20대가 올해 1분기 1841명에서 2분기엔 1996명으로 늘었고 3분기에도 1957명으로 비슷한 수준이 이어졌습니다. 같은 기간 다른 연령대의 신청자는 감소세를 보였는데 이런 현상은 20대의 학자금 대출 증가와 취업난에 따른 것으로 분석됩니다.3. 남중국해 등대…미·중 신경전 고조중국이 9일 남중국해 '스프래틀리 제도'의 산호초에 등대 두 대를 완공해 작동을 시작했다고, 중국 관영 신화통신이 보도했습니다. 이들 등대는 높이가 각각 50m로 최장 22해리를 비추게 됩니다. 중국이 베트남, 필리핀, 대만 등과 영유권 분쟁 중인 남중국해에 등대까지 세우면서 미중 양국 간 긴장이 더욱 고조될 전망입니다.4. "걷는 속도 바꾸면 열량 20% 더 소모"일정한 속도로 걷는 것보다 속도를 자주 바꿔서 걸으면 칼로리 소모를 최대 20% 늘릴 수 있다는 연구 결과가 나왔습니다. 미국 오하이오대 연구팀이 러닝머신을 이용해 실험한 결과 걷는 속도를 바꾸는 것 자체가 마치 자동차의 가속 페달을 밟는 것처럼 에너지를 연소시키는 효과를 내는 걸로 나타났습니다. 관련기사[뉴스브리핑] 일 자위대, 학교 화장실 휴지에 모집 광고 [뉴스브리핑] "뉴질랜드서 한인 여성 5명 감금" 신고 [뉴스브리핑] 4~5세기 '압독국' 고분 도굴범 7명 검거 [뉴스브리핑] '북한 억류' 21살 주원문씨 판문점 귀환 취재 안나경 | 해당 기자의 기사 구독신청 구독해지 안나경 아나운서 입니다. 이메일 이전 취재기자 보기 다음 취재기자 보기 이전 다음 JTBC 뉴스 카카오톡 공식 채널 친구추가 JTBC 뉴스 페이스북 공식 채널 좋아요 JTBC 뉴스 유튜브 공식 채널 구독하기 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월 베스트 관광인에 김우형 씨 선정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 9월 베스트 관광인에 김우형 씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 9월 베스트 관광인에 김우형 씨 선정 기자명 고병수 기자 입력 2015.10.16 07:33 수정 2015.10.16 07:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 김영진 제주도관광협회 회장이 9월의 베스트 관광인에 김우형 씨에게 시상한 후 기념촬영하는 모습.(사진제공=제주도관광협회) (제주=국제뉴스) 고나연기자 = 제주특별자치도관광협회(회장 김영진)는 14일 제주웰컴센터 대회의실에서 '칭찬합시다' 이달의 베스트 관광인으로 이어도승마장 사원 김우형 씨를 선정하고 선정패와 친절 키움 꽃 화분을 전달했다고 15일 밝혔다.Best 관광인으로 선정된 김우형 사원은 지난 1999년 이어도승마장에 입사해 근면성실한 자세로 친절서비스를 제공해 관광객들로 많은 칭찬을 받았다는 것.특히 안전제일의 승마교육서비스와 더불어 방문객들이 즐거운 체험을 하도록 최선을 다해 다시 찾고 싶은 제주의 이미지 향상에 기여하며 동종업계 종사자들의 모범이 되고 있다. 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사자들의 친절 및 서비스 마인드를 한 단계 높여나가는 데 앞장서 나갈 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“제주도 카지노, '성접대 서비스'로 中 관광객 모아” &lt; 뉴스 &lt; 사회 &lt; 시사&amp;이슈 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:52 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 “제주도 카지노, '성접대 서비스'로 中 관광객 모아” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 시사&amp;이슈 사회 뉴스 “제주도 카지노, '성접대 서비스'로 中 관광객 모아” 기자명 이지훈 기자 입력 2015.10.13 13:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 9천만원 칩 교환시 2박3일 성접대 서비스 ▲ 제주도 카지노가 중국 관광객에게 성접대 서비스를 제공하며 영업을 한 사실이 중국 CCTV방송에 공개됐다. ⓒ뉴시스 제주도 카지노가 중국인 관광객을 유치하기 위해 성접대 서비스까지 제공하며 고객을 확보하고 있다는 주장이 나왔다. 중국 CCTV는 13일(현지시간) '초점방담'이란 프로그램에서 "한국의 도박장이 3류 여배우까지 동원해 중국인 관광객들에게 '성(性) 서비스'를 제공하고 있다"며 부적절한 영업 실태를 공개했다. 보도에 따르면 제주도 내 한국 카지노들은 중국인 고객을 끌어들이기 위해 항공권, 숙박, 여행 등을 무료로 제공하며, VIP로 분류되는 고객에게는 성 접대 서비스도 제공하고 있다고 CCTV는 지적했다. 중국의 CCTV가 밝힌 한 카지노의 문건에는 10만위안(약 1800만원)의 칩을 교환하면 '전문적인 안마 서비스' 1회, 20만위안(약 3600만원)의 칩을 교환하면 한국 무명 모델이나 연예인으로부터 잠자리 1회, 50만위안(약 9천만원)의 칩을 교환하면 모델 등이 2박3일간 24시간 동반하는 서비스가 제공된다고 명시되어 있었다. CCTV는 "사실상 이 같은 무료 제공 서비스는 고객들의 주머니에서 나오는 것"이라며 "도박은 반드시 지는 구조로 되어 있기 때문에 결국 카지노가 마지막에는 최고의 승자"라고 밝혔다. [시사포커스 / 이지훈 기자] 관련기사 ‘뉴스룸’ 이승환 “음원 사재기, 공공연한 비밀” 지적 태국 원정 오피스텔 성매매 여성 등 9명 검거 檢, 中 성형환자 불법 브로커 129명 적발 러시아 등에 100억대 차량 밀수출한 일당 검거 스포츠토토 사업선정, 진흙탕 싸움 끝낼까 SNS로 알바생 200여명 모집…대형 칼치기 보험사기단 검거 ‘성형 브로커’ 동원한 국내 성형외과 검찰에 덜미 이지훈 기자 jihun3591@naver.com 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 [포토] 3년 만에 정조대왕 능행차하시다. [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 2 [포토] 3년 만에 정조대왕 능행차하시다. 3 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 4 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 5 3년간 전기車 3배 늘었지만…고속도로 충전시설 '턱없이 부족' 6 [기획] 국감 화두로 떠오른 문재인, 민주당 ‘文 구하기’ 성공할까 7 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 8 [국감] 모다모다샴푸 위해성 성분 사용 논란, 보건복지위 국감장 후끈 9 [기획] 게이트 전쟁? 與 “성남FC·새만금 게이트” vs 野 “대감 게이트” 10 [국감] 지성호 “난 인권유린국 출신, 기업 자유 보장‧근로자 보호하는 한국에 충격” 1 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 2 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 3 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 4 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 5 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 6 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 7 [포토] 3년 만에 정조대왕 능행차하시다. 8 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 9 공유 PM 업체들, ‘블루오션’ 전기자전거 사업 뛰어든다 10 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 1 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 2 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 3 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 4 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 7 [포토] 흥인지문 앞에서 육의전 축제 8 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 9 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 10 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 엑소 첸, 3년 만에 신곡 '사라지고 있어' 31일 발매 [시사포커스 / 이청원 기자] 그룹 엑소 첸이 3년 만에 새 솔로 앨범으로 귀환한다.11일 소속사 측은 첸이 오는 31일 세 번째 미니앨범 '사라지고 있어 (Last Scene)'... 드림캐쳐, '아포칼립스'로 6개월 만에 컴백 이현이, SBS플러스 '우아달 리턴즈' MC 발탁…10일 첫방 엘링 홀란드, 한니발 렉터 스타일 식단 공개로 충격… 20골 비결? [시사포커스 / 이근우 기자] 엘링 홀란드(22, 맨체스터 시티)의 식단에 현지 팬들이 큰 충격을 받았다.영국 매체 ‘데일리 메일’은 10일(한국시간) “홀란드는 이번 시즌 벌써 ... 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 건강 여행 인터뷰 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광자원 벤치마킹 - 경북일보 - 굿데이 굿뉴스 × 전체기사 경북대구 전체 경북 대구 울산 지방의회 전체 경북 대구 사회 전체 사건사고 날씨 노동·복지 환경 교통·항공·항만 법원·경찰 국방 경북·대구 코로나19 속보 정치 전체 2022 6·1 지방선거 대통령실 국회·정당 행정·자치 외교 북한·남북 21대 총선 선거포토 열전현장 여론조사 지방선거 조합장선거 선거 경제 전체 철강 건설·부동산 소비자·유통 금융·주식 산업·기업 IT·과학 농업·축산·수산업 자동차 국제 문화라이프 전체 공연·전시 생활 맛집 종교 책 아침시단 운세 복권 TV·연예 영화 칠포재즈페스티벌 포토포엠 문학대전 당선작 청도관광사진전 호미문학대전 스포츠 전체 축구 야구 농구 골프 생활체육 바둑 헬스 교육 전체 대구 교육청 경북 교육청 대학교 학교 사람들 전체 새얼굴 동정 인사 알림 결혼 부고 오피니언 전체 사설 삼촌설 아침광장 데스크칼럼 노트북을 열며 연합시론 기고 연재칼럼 의정칼럼 경북포럼 독자투고 경북칼럼 경제인칼럼 경북시평 부동산칼럼 상도동에서 종교인단상 교단단상 TV바로보기 현장리포트 신문고 뉴콘텐츠 전체 경북, 한국 정신문화의 창 경북의 맛·멋·풍류 르포-현장에 답이 있다 기획 만나고 싶었습니다 연중기획-지역민 참여 프로젝트 청소년 안전의식 강화 프로그램 사람의 향기 농어업이 미래산업이다 2022 신년특집 해양 민선 7기 1년 새마을운동 50년 조명 21대 국회에 바란다 미디어 전체 포토 경북일보TV 홍보영상 카드·인포그래픽 커뮤니티·알림 전체 경북일보 알림 바로잡습니다 시민기자 축제·행사 포토코리아 보도자료 연재 TK핫이슈 독자권익위 지면평가 기자상 수상실적 오늘날짜 2022-10-11 (화) 로그인 독자투고 기사제보 지면보기 구독신청 동정 전체 사람들 새얼굴 인사 알림 결혼 부고 전체서비스 닫기 경북대구바로가기 경북 대구 지방의회바로가기 경북 대구 사회바로가기 사건사고 날씨 노동·복지 환경 교통·항공·항만 법원·경찰 국방 경북·대구 코로나19 속보 정치바로가기 2022 6·1 지방선거 대통령실 국회·정당 행정·자치 외교 북한·남북 경제바로가기 철강 건설·부동산 소비자·유통 금융·주식 산업·기업 IT·과학 농업·축산·수산업 자동차 문화라이프바로가기 공연·전시 생활 맛집 종교 책 아침시단 운세 TV·연예 영화 칠포재즈페스티벌 포토포엠 문학대전 당선작 청도관광사진전 호미문학대전 스포츠바로가기 축구 야구 농구 골프 생활체육 바둑 교육바로가기 대구 교육청 경북 교육청 대학교 학교 사람들바로가기 새얼굴 인사 알림 결혼 부고 오피니언바로가기 사설 삼촌설 아침광장 데스크칼럼 노트북을 열며 기고 연재칼럼 의정칼럼 경북포럼 독자투고 시민기자 뉴콘텐츠바로가기 경북, 한국 정신문화의 창 경북의 맛·멋·풍류 르포-현장에 답이 있다 기획 만나고 싶었습니다 연중기획-지역민 참여 프로젝트 청소년 안전의식 강화 프로그램 사람의 향기 농어업이 미래산업이다 2022 신년특집 미디어바로가기 포토 경북일보TV 카드·인포그래픽 TK핫이슈바로가기 독자권익위 지면평가바로가기 기자상 수상실적바로가기 모바일 버전 이전 다음 제주도 관광자원 벤치마킹 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람들 동정 제주도 관광자원 벤치마킹 승인 2015년 10월 15일 21시 37분 지면게재일 2015년 10월 16일 금요일 9면 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 네이버포스트 구글+ 카카오스토리 카카오톡 네이버밴드 텔레그램 URL복사 × ▲ 권호락 영천시의회 의장 권호락 영천시의회 의장은 지난 12일부터 3일간 비회기 동안 산업건설 위원회 소속 6명의 의원들과 함께 관광자원 벤치마킹을 위해 제주도를 방문했다. 저작권자 © 경북일보 - 굿데이 굿뉴스 무단전재 및 재배포 금지 의 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 댓글 작성이 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 사람들 Hot 인기기사 1고령군새마을회, 대구 남구새마을회와 자매결연 협약 체결 2'인플루언서 어서와'…의성슈퍼푸드마늘축제 파워블로거·유튜버 초청 팸투어 3[새인물] 변태우 경북포럼 고령지역위원장…"고령의 미래 언론과 함께 모색" 4봉화군, '라디오 들으며 걷다'…봉자페스티벌 연계 라디엔티어링 개최 5김천시 대곡동 이영애 씨, 경로효친상 수상…시어머니·장애 5급 남편 지극 정성 봉양 6경산시니어클럽, 2021년 노인일자리사업 평가 '최우수상' 7포항시에 태풍피해 이재민 구호 성금품 나눔 온정 답지 8대구 동구청, '행복둥지 26호' 독립유공자 후손 입주 9영천시, 제2호 농업명장에 신녕면 김병식 씨 선정 10포항시의회·포항시의정회 정책간담회 개최…주요 현안 논의 설악산은 한겨울 설악산은 한겨울 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 설악산은 한겨울 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 오늘 주간 월간 1 대구 동화사 '제12회 팔공산 산중장터 승시축제' 개최 2 대구예술제 오른 ‘영등굿’ 종교 편향 제기…대구예총 “유네스코 유산, 민속예술로 봐야” 3 영호남 문화예술로 뭉쳐 새로운 지방시대 이끈다…11일 경북도청 일원서 화합대축전 개최 4 대구百 본점 휴·폐업, 임대차계약 갱신거절사유 안돼…건물인도 소송 ‘패소’ 5 포항해경, 월성원전 앞 해상 수상레저활동 금지구역 지정 고시 6 포항 "스틸야드서 '남의 잔치' 안돼" 7 대구 수성아트피아, 첫 빈집프로젝트…12월 25일까지 ‘수성 인사이드 49-31전’ 8 상주시, 대구시 군사시설 통합 이전 유치 총력 9 홍준표 "대구시청 공무원 열정적이고 추진력 강해" 10 음주와 범죄 1 대구시, 국내 대기업 유치로 신수종 산업 육성 나선다 2 [부고] 김국현(문창고등학교 체육교사)씨 별세 3 [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' 4 [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 5 [우리지역 과학인재] 30. 이지훈 메쉬코리아 기획조정실장 6 [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 7 경북 메타버스 수도 만든다…파급효과 1조 8 제103회 전국체전, 7일부터 7일간 대장정…경북 3위·대구 9위 '정조준' 9 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' 10 홍준표, 지방에 각종 권한 통큰 이양·대구경북통합신공항 건설 필요성 강조 1 포항 블루벨리산단 하천 초토화…LH 준공 3년 만에 와르르 2 축구장 4800배 태양광 경북 덮었다 3 [포토] '썬플라워 크루즈호' 후포-울릉 노선 첫 취항 4 "모조리 망가졌다"…포항 이마트 푸드코트 상인들의 눈물 5 대구-일본 하늘길 열린다…11월 3개 노선 운항 재개 6 대구시, 수성알파시티 인근에 ‘제2 수성알파시티’ 조성한다 7 대구시, 국내 대기업 유치로 신수종 산업 육성 나선다 8 청도군청 남녀 공무원 저수지에 빠져 1명 사망 1명 중태 9 내년 국비 지원 중단 위기 '대구행복페이' 어쩌나 10 울릉도 뱃길에 럭셔리 더하다 …'썬플라워 크루즈호' 29일 취항 영주 풍기인삼, 라이브커머스 판매…쇼핑Live 총 7일간 진행 영주 풍기인삼, 라이브커머스 판매…쇼핑Live 총 7일간 진행 영주시, 소백산 인삼씨앗 뿌리기 퍼포먼스 진행 영주시, 소백산 인삼씨앗 뿌리기 퍼포먼스 진행 울릉군, 대한민국해양수산엑스포 참가 수산특산품 홍보 울릉군, 대한민국해양수산엑스포 참가 수산특산품 홍보 제5회 의성슈퍼푸드마늘축제 성료…3일간 10만명 방문 제5회 의성슈퍼푸드마늘축제 성료…3일간 10만명 방문 세계한인여성회장협의회·세계한인회장단, 포항 매력에 빠지다 세계한인여성회장협의회·세계한인회장단, 포항 매력에 빠지다 제46회 군위군민체육대회 성료…군민·출향인 1만여 명 참여 제46회 군위군민체육대회 성료…군민·출향인 1만여 명 참여 대구대 호텔관광경영학부, 일본 조선학회 오카야마 젠이치로 고문 초청 특강 대구대 호텔관광경영학부, 일본 조선학회 오카야마 젠이치로 고문 초청 특강 알림 [본사 손님] 문기봉 대구공공시설관리공단 이사장 사건·사고 제보 010-5811-4004 인재채용 지역 언론의 사명을 다 할 기자를 모집합니다. 회사소개 조직 및 연락처 광고안내 윤리강령 편집규약 고충처리인 개인정보취급방침 청소년보호정책 이메일무단수집거부 더보기 재난보도준칙 자살보도윤리강령 자살보도를 위한 실천요강 제휴신청 축제행사 청탁금지법 현황 본사 경상북도 포항시 북구 중흥로 321 12·13층 (㉾ 37745) Tel. 054-289-2222 Fax : 054-289-2235 대구본부 대구광역시 동구 동대구로 501 (㉾ 41256) Tel. 053-745-1122 Fax. 053-741-0335 북부본부 경상북도 안동시 풍천면 수호로 67 (㉾ 36759) Tel. 054-852-5200 Fax. 054-852-5301 인터넷신문등록번호 : 경북 아 00554 등록일자 : 2019. 10. 2 발행·편집·인쇄인 : 한국선 청소년보호책임자 : 조현석 경북일보는 인터넷신문위원회 윤리강령을 준수합니다. Copyright © 1990-2022 경북일보 - 굿데이 굿뉴스. All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>[동정] 김영진 제주도관광협회 회장 &lt; 동정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [동정] 김영진 제주도관광협회 회장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 동정 [동정] 김영진 제주도관광협회 회장 기자명 고병수 기자 입력 2015.10.06 16:58 수정 2015.10.06 16:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道관광협회, 중국 우호교류단체와 민간차원 인문교류 활성화 전개 ▲ 김영진 제주도관광협회 회장. (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 7일부터 13일까지 중일한중소기업촉진회와 귀주성 검서남주 주정부 초청에 따른 제주관광 인문교류단을 구성해 제1회 국제산지관광축제에 참가 한다.이번 교류단 방문은 직항 운항지역[제주↔구이양(귀주성 성도)] 연계 민간 차원의 인문교류 활성화를 통해 중국 제 2선 지방도시 공략으로 신규 관광수요 창출을 위한 양 지역 관광단체 간 우호협력 교류를 강화할 계획이다. 한편 중일한중소기업촉진회와 귀주성 검서남주 주정부는 올해 5월 31일에 개최된 제20회 제주국제관광마라톤축제에 10여명의 교류단을 파견한 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>aT, 대학로, 제주도서 ‘국내외 관광객 대상 막걸리 홍보행사’ 개최 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 호남 aT, 대학로, 제주도서 ‘국내외 관광객 대상 막걸리 홍보행사’ 개최 온라인 기사 2015.10.02 10:36 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 ▲한국농수산식품유통공사(사장 김재수, aT)는 최근 어려움을 겪고 있는 막걸리 소비 활성화를 위해 서울 대학로와 제주 바오젠거리에서 막걸리 시음 홍보행사를 개최한다. 2013년 행사 모습. [일요신문] 한국농수산식품유통공사(aT)는 최근 어려움을 겪고 있는 막걸리 소비 활성화를 위해 막걸리 시음 홍보행사를 개최한다고 2일 밝혔다. 서울 대학로와 제주 바오젠거리에서 열리는 이번 행사는 그동안 중장년층에 머물러 있던 막걸리 소비층을 젊은 층으로 확대하고, 중국 관광객에게 막걸리를 알리기 위해 마련됐다. 먼저, 2일부터 4일까지 서울 대학로 마로니에 공원에서 ‘대학로문화축제(SUAF 2015기상천외)’와 연계해 젊은 층을 대상으로 우리술 품평회 입상작 등 다양한 프리미엄 막걸리를 선보일 예정이다. 또한 13일부터 19일까지는 중국 관광객들이 많이 찾는 제주 바오젠거리에서 막걸리의 유래, 효능, 제조 및 음용법 등 정보를 제공해 우리 전통주의 우수성을 홍보할 예정이다. aT 관계자는 “이번 행사 기간 중에 막걸리 시음과 함께 다양한 즐길거리도 많이 준비돼 있어 젊은층과 중국 관광객들이 우리술을 이해하고 찾을 수 있는 계기가 될 것으로 기대한다”고 말했다. 정성환 기자 ilyo66@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 호남 많이 본 뉴스 한전 전주이설 항의민원 거짓답변·강압적 대응 파문 온라인 기사 ( 2021.10.18 22:06 ) 백신패스 시행 후 목포 코로나 신규 확진자 중 돌파감염 65.7%…백신패스 한계 드러내 온라인 기사 ( 2022.01.12 23:45 ) 임실군 엉터리 환경행정 불법행위 고질화 온라인 기사 ( 2022.01.04 11:04 ) 호남 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 3 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 8 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 호남 많이 본 뉴스 1 한전 전주이설 항의민원 거짓답변·강압적 대응 파문 2 백신패스 시행 후 목포 코로나 신규 확진자 중 돌파감염 65.7%…백신패스 한계 드러내 3 임실군 엉터리 환경행정 불법행위 고질화 4 해경 코로나 방역 뚫리고 치안 공백까지…경찰서 한 곳서 6명 확진에 45명 격리 5 김종식 목포시장 부인 직접 금품 건넨 사실 없어…“공작에 당했다” 주장 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>관광산업 활성화 시켜 제주도내 습지 보전 한다고? &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 관광산업 활성화 시켜 제주도내 습지 보전 한다고? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 관광산업 활성화 시켜 제주도내 습지 보전 한다고? 기자명 최병근 기자 입력 2015.10.05 14:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주환경운동연합, “습지 관광 상품화 발상 상당히 우려 스럽다”제주도, 322개 습지 보전·관리기준 제도화…중장기 대책 발표 ▲ [제주도민일보 DB] 환경단체 관계자가 습지 현장 조사를 벌이고 있는 모습.[제주도민일보=최병근 기자] 제주도가 도내 습지를 보전하고 관리하기 위한 체계를 만든다. 하지만 제주도가 추진하는 습지보전 종합계획 대책의 결론이 생태자원과 연계한 관광활성화여서 향후 논란이 예상된다. 습지의 관광자원화는 또 다시 습지의 파괴로 이어질 것이라는 지적이다. 제주도는 무분별한 개발행위로 습지가 사라짐에 따라 중장기 습지 보전 종합계획을 2016년까지 진행하고 습지의 가치를 극대화 시킨다는 계획을 5일 발표했다.제주도에 따르면 현재 도내에는 전체 322개의 습지가 있다. 제주시에는 177개, 서귀포시에 145개가 있다.제주에서는 동백동산 습지를 비롯해 물영아리, 물장아리, 1100고지, 숨은물뱅듸 습지 등 5곳이 습지보호지역으로 지정돼 관리되고 있다.제주도가 발표한 습지보전 종합계획에 따르면 2016년부터 2017년까지 사업비 1억원을 투자해 습지의 분포 및 실태조사, 습지지역의 보전·관리방안, DB자료를 구축할 계획이다.제주도의 습지보전 대책은 지역실정에 맞는 습지보전 및 관리기준을 제도화하고 기존 연못을 활용해 생태연못을 조성한다는 계획이다.또 도시화의 확대 등으로 각종 위협에 처해있는 특정식물종의 서식처·증식·복원방안을 강구해 거시적 자연생태학습장으로 활용하는 방안을 만들 예정이다.제주도는 이 같이 만들어진 종합계획을 정책을 만들때 활용할 방침이다.우선 제주도는 습지보전 종합계획 수립에 따라 환경영향평가 및 각종 개발행위 시 보전가치가 있는 습지를 보호할 계획이다. 또 습지보전지역 등 생태자원과 연계한 관광활성화를 위한 콘텐츠로 개발·활용해 나갈 예정이다.하지만 환경단체는 이에 대해 심각한 우려를 표했다.제주환경운동연합 관계자는 “일부 접근이 쉬운 습지를 상징적인 차원에서 관광자원화 하는 것은 가능하겠지만 온전하게 보전되고 있는 습지까지 관광상품화 한다는 것은 상당히 우려 스럽다. 이런 방식의 접근 방식은 안된다”며 “제주도가 추진하고 있는 습지 전수조사 계획에 우리 단체도 적극 참여할 방침”이라고 강조했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
   <si>
     <t>"제주도·제주관광공사, 중국 동북지역 도보·마라톤협회 관계자 초청 팸투어 시행"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 뉴스 제주도·제주관광공사, 중국 동북지역 도보·마라톤협회 관계자 초청 팸투어 시행 2015.10.01 17:55 팸투어단 단체사진 [헤럴드시티=김지혜 기자]최근 중국 내 레저산업이 급성장하고, 레저스포츠에 대한 사회적 관심이 커지면서, 도보, 마라톤, 자전거 등 레저동호회 시장을 중심으로 한 레저관광 수요가 급격히 증가하고 있는 가운데, 제주관광의 주 고객인 요우커의 관광패턴과 중국 내 수요층(시장)을 다변화하기 위한 노력이 계속되고 있다 제주특별자치도와 제주관광공사(사장 최갑열)는 중국 중추절 연휴기간인 9월 27일부터 10월 1일까지 4박5일간 대련도보협회, 심양도보망, 심양마라톤협회, 중국 호외탐험연맹 등 중국 동북지역 레저동호회 관계자 14명을 대상으로 2015제주올레걷기축제와 추계 마라톤대회 상품개발 및 모객 활성화를 위한 사전 답사를 시행하였다. 제주특별자치도와 제주관광공사는 레저스포츠 산업을 미래 제주관광의 신성장 동력으로 육성해 나가고, 중국인 레저관광객 유치 확대를 통한 지역경제 활성화를 위하여 중국과 대만 등 중화권지역을 대상으로 제주의 지역 축제 및 레저스포츠 이벤트와 연계한 체험형 테마 상품의 개발을 역점적으로 추진하고 있으며, 이번 팸투어도 이러한 사업의 일환으로 기획되었다. 특히 이번 팸투어는 중국인 관광객을 단체관광에서 FIT(개별관광), SIT(특수목적관광)로 전환하고, 중국 내 제주 관광상품의 다양화를 위하여 레저상품 마니아층이라는 특정 타깃을 대상으로 제주지역 축제와 레저스포츠 이벤트와 결합한 체험형 테마상품을 개발, 핵심 상품으로 브랜드화 하기 위해 기획, 시행되어 현지 업계의 많은 주목을 받았다. 특히 이번에 방문하는 중국호외탐험연맹은 2012년에 성립된 전국단위의 대규모 아웃도어 단체로, 각 성(省)과 시(市)의 200여개의 지역연맹을 통해 전국적으로 100만명 이상이 활발하게 활동하고 있는 단체로, 2014 유채꽃국제걷기대회와 제주올레걷기축제, 2015 서귀포유채꽃걷기대회에 연달아 참가하며 도내 행사의 참가 규모를 매해 확대해 나가고 있다. 팸투어단은 2015제주올레걷기축제 개막코스인 올레20코스와 아름다운국제마라톤대회, 제주감귤국제마라톤대회 등 제주의 추계 마라톤대회 코스를 답사하고 제주의 청정자연과 레저스포츠를 결합한 제주만의 힐링 도보, 마라톤 상품 개발의 가능성을 긍정적으로 평가하였으며, 기대이상의 만족감을 표현했다. 또한 최근 개관한 제주올레 간세라운지를 방문, 외국인 FIT를 대상으로 한 제주올레 1일 체험 프로그램 및 제주올레걷기축제 중국인 관광객 참여 확대를 위한 업무협의를 진행했다. 팸투어에 참가한 중국호외탐험연맹 관계자는 "제주에서의 도보여행은 단순히 걷는 것에 그치지 않고, 걷는 행위를 통해 몸과 마음의 안정을 찾고 리프레시 된다는 점에서 다른 지역의 걷기와 차별이 된다"면서 "이번에 방문한 우도올레길이나, 사려니숲길, 산굼부리 등 도내 주요 트레킹 코스들은 중국 내에서도 크게 히트할 잠재력이 있다."며 제주 상품 구성에 대한 큰 자신감을 표출했다. 제주관광공사 관계자는 “2011년부터 도보, 마라톤, 등산 등 중국 레저스포츠 동호인을 타깃으로 한 지속적인 프로모션을 추진해 왔으며, 카이사여행사, 춘추항공, 부흥항공 등 현지 주요 항공사 및 여행사와의 네트웤 강화 및 긴밀한 업무협의를 통해 지역밀착형 상품개발 및 활성화를 위하여 지속적으로 노력해 나가겠다”고 밝혔다. 한편 제주특별자치도와 제주관광공사는 올 상반기 서귀포유채꽃걷기대회, 국제평화마라톤대회, 제주관광마라톤축제 등과 연계한 도보, 마라톤상품을 개발, 700여명의 중화권 레저관광객을 유치한 바 있다. citynews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도, 中 상해에서 크루즈관광객 유치활동 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 中 상해에서 크루즈관광객 유치활동 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 中 상해에서 크루즈관광객 유치활동 전개 기자명 고병수 기자 입력 2015.10.10 16:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 상해시 중국크루즈산업박람회 참가 (제주=국제뉴스) 고병수기자 = 제주도가 중국 상해시에서 크루즈관광객 유치활동을 펼친다.10일 제주특별자치도에 따르면 오는 13일부터 15일까지 중국 상해시 지역에서 제10회 중국크루즈산업박람회와 연계해 크루즈선사와 중국 여행사들을 대상으로 한 다양한 크루즈관광객 유치활동을 전개한다고 밝혔다. 이는 지난 여름 메르스 여파로 침체된 크루즈관광을 활성화시키기 위해 해양수산부와 제주도가 공동 주최하고 (사)제주크루즈산업협회가 주관하는 해외 마케팅 사업이다.우리나라는 제주를 비롯한 부산, 인천, 전남, 강원 등 기항지 지자체 관계자들이 참가해 홍보 마케팅 활동을 펼친다.주요행사 내용은 상해우송코국제크루즈항발전유한공사와 한국 지자체간 업무협력 및 교류활성화를 위한 항만발전 간담회를 시작으로 제주 크루즈관광 프로그램 개선과 우송코 터미널내 제주홍보관 설치 및 제주특산품 홍보 사항을 협의하기 위해 제주도와 상해우송코국제크루즈항발전유한공사와의 실무미팅이 이뤄진다. 이와 함께 크루즈선 기항확대를 위해 크루즈선사와 중국현지 크루즈관광객 모객여행사를 대상으로 한 1대1 비즈니스 미팅도 실시한다.관계자는 “중국 크루즈관광객 유치활동을 통해 아시아 최대의 크루즈 모항지인 중국 상해에서 효과적인 크루즈 관광객 유치활동을 펼쳐 제주 지역경제 활성화에 도움이 될 것”이라며 “크루즈산업 육성을 위한 선도적인 역할 수행으로 제주의 위상이 크게 강화될 것”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 기자명 고병수 기자 입력 2015.10.06 03:57 수정 2015.10.06 05:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 공모전 포스터. (제주=국제뉴스) 고병수기자 = 제주특별자치도와 道관광협회(회장 김영진)는 제주만의 독자적인 대형 온라인마켓 사이트 오픈을 앞두고 브랜드 네이밍 공모전을 실시한다고 5일 밝혔다.제주 온라인마켓은 항공·숙박·렌터카와 관광지·레저·음식점 등을 포함한 제주 관광 상품을 전문으로 판매하는 실시간 예약 기반의 오픈마켓이다.제주를 찾는 고객의 쇼핑 신뢰성과 만족도를 높이고, 업체에게 상품 노출 공간 확대와 비용절감을 통한 경쟁력 향상을 도모해 윈-윈 환경 조성을 실현해 나갈 계획이다.공모전 참여는 누구나 공모가 가능하며, 기간은 오는 11일이고 제주여행 정보포털 하이제주 (www.hijeju.or.kr) 사이트를 통해 쉽게 공모할 수 있다. 수상작은 전문가 심사를 통해 11월 초 발표 예정이다. 시상은 대상, 금상, 우수상에게 총 170여만 원의 시상금을 수여하며, 추첨을 통해 참가상 100명에게는 문화상품권을 증정한다. 수상작은 향후 제주 온라인마켓의 브랜드 명으로 활용될 수 있다.문의= 제주특별자치도관광협회 064-741-8778 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도, 中 상해에서 크루즈관광객 유치활동 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 中 상해에서 크루즈관광객 유치활동 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 中 상해에서 크루즈관광객 유치활동 전개 기자명 고병수 기자 입력 2015.10.10 16:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 상해시 중국크루즈산업박람회 참가 (제주=국제뉴스) 고병수기자 = 제주도가 중국 상해시에서 크루즈관광객 유치활동을 펼친다.10일 제주특별자치도에 따르면 오는 13일부터 15일까지 중국 상해시 지역에서 제10회 중국크루즈산업박람회와 연계해 크루즈선사와 중국 여행사들을 대상으로 한 다양한 크루즈관광객 유치활동을 전개한다고 밝혔다. 이는 지난 여름 메르스 여파로 침체된 크루즈관광을 활성화시키기 위해 해양수산부와 제주도가 공동 주최하고 (사)제주크루즈산업협회가 주관하는 해외 마케팅 사업이다.우리나라는 제주를 비롯한 부산, 인천, 전남, 강원 등 기항지 지자체 관계자들이 참가해 홍보 마케팅 활동을 펼친다.주요행사 내용은 상해우송코국제크루즈항발전유한공사와 한국 지자체간 업무협력 및 교류활성화를 위한 항만발전 간담회를 시작으로 제주 크루즈관광 프로그램 개선과 우송코 터미널내 제주홍보관 설치 및 제주특산품 홍보 사항을 협의하기 위해 제주도와 상해우송코국제크루즈항발전유한공사와의 실무미팅이 이뤄진다. 이와 함께 크루즈선 기항확대를 위해 크루즈선사와 중국현지 크루즈관광객 모객여행사를 대상으로 한 1대1 비즈니스 미팅도 실시한다.관계자는 “중국 크루즈관광객 유치활동을 통해 아시아 최대의 크루즈 모항지인 중국 상해에서 효과적인 크루즈 관광객 유치활동을 펼쳐 제주 지역경제 활성화에 도움이 될 것”이라며 “크루즈산업 육성을 위한 선도적인 역할 수행으로 제주의 위상이 크게 강화될 것”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-道관광협회, 온라인마켓 브랜드 네이밍 공모 기자명 고병수 기자 입력 2015.10.06 03:57 수정 2015.10.06 05:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 공모전 포스터. (제주=국제뉴스) 고병수기자 = 제주특별자치도와 道관광협회(회장 김영진)는 제주만의 독자적인 대형 온라인마켓 사이트 오픈을 앞두고 브랜드 네이밍 공모전을 실시한다고 5일 밝혔다.제주 온라인마켓은 항공·숙박·렌터카와 관광지·레저·음식점 등을 포함한 제주 관광 상품을 전문으로 판매하는 실시간 예약 기반의 오픈마켓이다.제주를 찾는 고객의 쇼핑 신뢰성과 만족도를 높이고, 업체에게 상품 노출 공간 확대와 비용절감을 통한 경쟁력 향상을 도모해 윈-윈 환경 조성을 실현해 나갈 계획이다.공모전 참여는 누구나 공모가 가능하며, 기간은 오는 11일이고 제주여행 정보포털 하이제주 (www.hijeju.or.kr) 사이트를 통해 쉽게 공모할 수 있다. 수상작은 전문가 심사를 통해 11월 초 발표 예정이다. 시상은 대상, 금상, 우수상에게 총 170여만 원의 시상금을 수여하며, 추첨을 통해 참가상 100명에게는 문화상품권을 증정한다. 수상작은 향후 제주 온라인마켓의 브랜드 명으로 활용될 수 있다.문의= 제주특별자치도관광협회 064-741-8778 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
   <si>
     <t>"제주도·제주관광공사, 태국 현지 한국문화관광대전 참가.. "제주관광 홍보""- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 뉴스 제주도·제주관광공사, 태국 현지 한국문화관광대전 참가.. "제주관광 홍보" 2015.10.01 17:47 [헤럴드시티=김지혜 기자]태국 방콕과 제주를 연결하는 정기 직항노선 개설에 따른 고부가가치 관광객 유치 증진을 위한 태국 현지 마케팅에 시동이 걸렸다. 제주특별자치도와 제주관광공사(사장 최갑열)는 오는 2일부터 4일 까지 총 3일간 한국관광공사 방콕지사와 공동으로 한국문화관광대전(Korea Culture &amp; Travel Festival) 이벤트에 참가, 제주관광 홍보를 추진한다고 밝혔다. 이번 행사는 메르스로 인해 침체된 한국 관광산업 활성화를 위해 한국 관광공사 방콕지사가 주최하는 대한민국과 지방관광 자원을 홍보하는 이벤트로 태국 현지에서 개최되며 여행, 뷰티, 의료, 엔터테이먼트 등 71곳의 업계와 1만 5천명의 소비자들이 찾을 것으로 기대된다. 이에 제주관광공사는 제주특별자치도와 함께 이번 한국문화관광대전에 참가를 통해 10월 1일부터 주 7회 운항되는 태국 방콕-제주 신규 직항노선에 대한 홍보와 더불어 특히 노선 활성화를 위한 제주직항상품 개발 등 현지 여행사, 항공사 등 업계대상 홍보 세일즈콜을 추진한다. 특히 제주가 지향하는 고부가가치 장기체류형태의 관광 브랜드 인지도를 높이기 위하여 고품격 웨딩, 허니문과 골프 그리고 케이팝(K-Pop)을 핵심 콘텐츠로 집중 홍보할 방침이다. 한편 공사는 오는 10월 2일 태국 방콕-제주 노선 제주입도 첫 태국인 관광객 약 180여명을 대상으로 제주공항 국제선 도착장에서 환대행사를 개최한다. 이날에는 특히 공사에서 고부가가치 관광콘텐츠 발굴 및 육성을 위해 추진하고 있는 골프 관광객 약 20여명과 태국인 허니문 커플도 입도하며, 향후 도내업계와 공동으로 SIT 상품개발을 시도할 예정이다. 제주관광공사 한 관계자는 “오늘(10월 1일)부터 운항되는 태국방콕과 제주 직항노선은 아세안으로 제주관광 시장 다변화를 위해 그 의미하는 바가 크다”며 “향후 제주가 지향하는 지속가능한 관광실현을 위해 특히 고품격 콘텐츠 발굴과 관광객 유치를 위한 현지 마케팅을 지속적으로 전개해 나아갈 계획이다”고 밝혔다. citynews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.10.06 13:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 중일한중소기업촉진회와 중국 귀주성 검서남주 초청에 따라 제주관광 인문교류단을 구성, 7일부터 13일까지 제1회 국제산지관광축제에 참가한다고 6일 밝혔다. 이번 교류단 방문은 두 지역 관광단체 우호협력 교류 강화는 물론, 직항 운항지역[ 연계 민간 차원의 인문교류 활성화를 통해 중국 제2선 지방도시 공략으로 신규 관광수요 창출을 위해 마련됐다. 중일한중소기업촉진회와 귀주성 검서남주 주정부는 올해 5월 31일 개최된 제20회 제주국제관광마라톤축제에 10여명의 교류단을 파견한 바 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>롯데관광개발, 제주도 드림타워 카지노 복합리조트 직접 추진 - 이투데이 속보창 구독신청 RSS 부동산 시장동향 업계 정책 분양 개발 경매 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 부동산 일반 롯데관광개발, 제주도 드림타워 카지노 복합리조트 직접 추진 입력 2015-10-05 18:49 박태진 기자																								tjpippo@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 동화투자개발로부터 계약금 1000억 현물출자 받기로 ▲이달 착공에 들어가는 제주도 드림타워 조감도.(사진제공=롯데관광개발)롯데관광개발은 계열사인 동화투자개발로부터 중국 녹지(뤼디)그룹에 지급한 계약금 1000억원을 현물출자 받아 드림타워 카지노 복합리조트 사업을 직접 추진하기로 했다고 5일 밝혔다. 이날 오전 롯데관광개발과 동화투자개발은 각각 이사회를 열고, 동화투자개발이 드림타워 카지노호텔 계약금 1000억원을 롯데관광개발에 현물출자하고 롯데관광개발은 주식 564만9717주(발행가액 주당 1만7700원)를 동화투자개발에 배정하기로 결의했다.제주 최고 중심지인 노형오거리에 위치한 드림타워 카지노 복합리조트는 토지주인 동화투자개발과 중국 최대 부동산개발회사인 녹지그룹이 공동개발하기로 한 프로젝트다. 이와 관련, 지난 달 1일 동화투자개발은 녹지그룹에 사업부지(2만3301㎡)를 1920억원에 매각함과 동시에 동화투자개발이 소유할 카지노호텔의 계약금으로 1000억원을 녹지그룹에 지급했다. 동화투자개발은 호텔과 외국인전용 카지노, 쇼핑몰 등 전체 연면적 30만2777㎡의 59.02%를 소유할 예정이다.이번 현물출자에 따라 드림타워 카지노 복합리조트 사업은 계열사의 맏형인 롯데관광개발이 전면에 나서서 추진하게 된다.롯데관광개발은 인·아웃바운드 여행업은 물론 크루즈여행업과 면세점사업(동화면세점)을 통해 지난 40년 동안 외국인 관광객을 유치해 온 대한민국 대표 종합여행업체다.김기병 롯데관광개발 회장은 “오랜기간 축적된 외국인관광객 유치 노하우를 바탕으로 드림타워를 월드클래스(world-class) 카지노 복합리조트로 만들겠다”고 설명했다.한편 드림타워 카지노 복합리조트는 호텔 776실과 호텔레지던스 850실 등 1626객실, 외국인전용 카지노, 쇼핑몰, 전망대, 호텔부대시설로 구성된다. 리조트는 이달 착공에 들어가 2018년 하반기에 문을 열 예정이다. #롯데관광개발 #제주도 #드림타워 #카지노 #복합리조트 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 부동산 최신 뉴스 유경준, "문재인 정부, 10년 분양전환 임대주택 2019년부터 사실상 폐지” "LH, 원가공개 소송 100% 패소…모든 아파트 분양원가 공개해야" "착한 임대인에 합류합니다"…LH, 임대주택 임대료 ‘동결’ 1년 연장 대우건설ㆍ중흥그룹, 독립유공자 후손 노후주택 개선 사업 활발 하락세 깊어지는 인천 아파트값…송도 4억·부평 2억 ‘뚝’ 포스코건설, 1810억 규모 서울 신반포 청구아파트 리모델링 사업 수주 현대건설, 인천항만공사와 ‘ESG 경영 공동추진 업무협약’ 체결 LH, 청년·신혼부부 매입임대 3310가구 공급…4일부터 청약 상장 대형건설사 3분기 실적 전망 보니 삼성ㆍGS ‘맑음’ DLㆍ금호 '흐림' 서울 사람의 지방 아파트 원정 매입 급감…2년 9개월 만에 최저 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' 삼성전자·SK하이닉스, 저가매수ㆍ반등 시도…4%대 강세 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:54 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.KR모터스 85 3.에이프로젠제약 62 4.일진홀딩스 495 5.디아이씨 360 1.라닉스 1,520 2.오픈엣지테크놀로지 2,400 3.오토앤 2,300 4.칩스앤미디어 3,150 5.유안타제7호스팩 675 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,176,000 +1.11% 이더리움 1,905,000 +1.82% 비트코인 캐시 167,000 -0.48% 리플 656.8 -0.58% 위믹스 2,585 +1.57% 에이다 613.4 -0.16% 이오스 1,698 -0.12% 트론 88.16 -0.93% 스텔라루멘 166.8 -4.47% 비트코인에스브이 69,450 +0.07% 체인링크 10,660 +2.7% 샌드박스 1,193 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 중국 국제산지관광축제에 인문교류단 파견 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.10.06 13:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 중일한중소기업촉진회와 중국 귀주성 검서남주 초청에 따라 제주관광 인문교류단을 구성, 7일부터 13일까지 제1회 국제산지관광축제에 참가한다고 6일 밝혔다. 이번 교류단 방문은 두 지역 관광단체 우호협력 교류 강화는 물론, 직항 운항지역[ 연계 민간 차원의 인문교류 활성화를 통해 중국 제2선 지방도시 공략으로 신규 관광수요 창출을 위해 마련됐다. 중일한중소기업촉진회와 귀주성 검서남주 주정부는 올해 5월 31일 개최된 제20회 제주국제관광마라톤축제에 10여명의 교류단을 파견한 바 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 드림타워 카지노 복합리조트 직접 추진 - 이투데이 속보창 구독신청 RSS 부동산 시장동향 업계 정책 분양 개발 경매 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 부동산 일반 롯데관광개발, 제주도 드림타워 카지노 복합리조트 직접 추진 입력 2015-10-05 18:49 박태진 기자																								tjpippo@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 동화투자개발로부터 계약금 1000억 현물출자 받기로 ▲이달 착공에 들어가는 제주도 드림타워 조감도.(사진제공=롯데관광개발)롯데관광개발은 계열사인 동화투자개발로부터 중국 녹지(뤼디)그룹에 지급한 계약금 1000억원을 현물출자 받아 드림타워 카지노 복합리조트 사업을 직접 추진하기로 했다고 5일 밝혔다. 이날 오전 롯데관광개발과 동화투자개발은 각각 이사회를 열고, 동화투자개발이 드림타워 카지노호텔 계약금 1000억원을 롯데관광개발에 현물출자하고 롯데관광개발은 주식 564만9717주(발행가액 주당 1만7700원)를 동화투자개발에 배정하기로 결의했다.제주 최고 중심지인 노형오거리에 위치한 드림타워 카지노 복합리조트는 토지주인 동화투자개발과 중국 최대 부동산개발회사인 녹지그룹이 공동개발하기로 한 프로젝트다. 이와 관련, 지난 달 1일 동화투자개발은 녹지그룹에 사업부지(2만3301㎡)를 1920억원에 매각함과 동시에 동화투자개발이 소유할 카지노호텔의 계약금으로 1000억원을 녹지그룹에 지급했다. 동화투자개발은 호텔과 외국인전용 카지노, 쇼핑몰 등 전체 연면적 30만2777㎡의 59.02%를 소유할 예정이다.이번 현물출자에 따라 드림타워 카지노 복합리조트 사업은 계열사의 맏형인 롯데관광개발이 전면에 나서서 추진하게 된다.롯데관광개발은 인·아웃바운드 여행업은 물론 크루즈여행업과 면세점사업(동화면세점)을 통해 지난 40년 동안 외국인 관광객을 유치해 온 대한민국 대표 종합여행업체다.김기병 롯데관광개발 회장은 “오랜기간 축적된 외국인관광객 유치 노하우를 바탕으로 드림타워를 월드클래스(world-class) 카지노 복합리조트로 만들겠다”고 설명했다.한편 드림타워 카지노 복합리조트는 호텔 776실과 호텔레지던스 850실 등 1626객실, 외국인전용 카지노, 쇼핑몰, 전망대, 호텔부대시설로 구성된다. 리조트는 이달 착공에 들어가 2018년 하반기에 문을 열 예정이다. #롯데관광개발 #제주도 #드림타워 #카지노 #복합리조트 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 부동산 최신 뉴스 주산연, “임대아파트 표준건축비 현실화 시급” 국토부, ‘K-스마트도시' 기술력 뽐냈다…국제 로드쇼 개최 ‘공사중단’ 둔촌주공, 상가 갈등에 발목 잡히나 LH, 과천 지정타·의왕 초평 등 행복주택 3570가구 청약 SGC이테크건설, 전국 건설 현장서 ‘화재 예방 안전 캠페인’ 실시 부동산R114, 더비즈와 함께 AI·디지털 기반 중개업무 강화한다 KCC건설, 최고 38층·초역세권 ‘대전 에테르 스위첸’ 내달 분양 [르포] “부동산 한파 남의 일”…평택, 삼성·브레인시티 효과에 ‘외지인 밀물’ 슬그머니 멀어지는 2030의 내집마련...2년3개월 만에 최저치 "외국인, 7년간 국내 아파트 3만 채 샀다"…중국인이 62% 차지 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '북적이는 2022 한국제약바이오 채용박람회' 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:52 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,390 3.베트남개발1 64 4.유니온머티리얼 355 5.STX 335 1.테라셈 22 2.코아스템 2,680 3.동국알앤에스 785 4.코디엠 118 5.이노룰스 2,800 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,376,000 -1.45% 이더리움 1,838,000 -2.85% 비트코인 캐시 158,800 -5.42% 리플 709.2 -6.35% 위믹스 2,403 -5.54% 에이다 566.9 -6.42% 이오스 1,484 -7.65% 트론 88.53 -0.67% 스텔라루멘 176.5 -3.34% 비트코인에스브이 67,900 -3.96% 체인링크 10,390 -5.11% 샌드박스 1,131 -5.51% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -466,9 +565,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -477,9 +573,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -488,6 +581,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +648,215 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
